--- a/datos/muestra_vuelos_2011.xlsx
+++ b/datos/muestra_vuelos_2011.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee35faec835a6ec/Documentos/USAC/POSTGRADO/TR4/Analisis de datos/ProyectoFinal/datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee35faec835a6ec/Documentos/USAC/POSTGRADO/TR4/Analisis de datos/IntroduccionAnalisisDatos_ProyectoFinal/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84EB65F-5048-4FE2-B296-37FA3482FB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D84EB65F-5048-4FE2-B296-37FA3482FB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A106DA8-54B4-4D45-A122-26F30676DBE9}"/>
   <bookViews>
-    <workbookView xWindow="-20175" yWindow="975" windowWidth="15960" windowHeight="10335" xr2:uid="{1FF23BB4-4BD1-4F9A-BA72-632F90D585D7}"/>
+    <workbookView xWindow="21090" yWindow="3195" windowWidth="15960" windowHeight="10335" xr2:uid="{1FF23BB4-4BD1-4F9A-BA72-632F90D585D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -556,11 +556,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD1A891-9637-404D-A2DA-9B438607FA13}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
